--- a/xlsx/FR/policies_win_lose_self_FR_inc.xlsx
+++ b/xlsx/FR/policies_win_lose_self_FR_inc.xlsx
@@ -12,30 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">(Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ban on combustion-engine cars&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -380,61 +392,129 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0566846390547174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0695121559353383</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0551958037235578</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0955426704601823</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.101048381652185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.174466907773966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.271063113253394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.292838133185283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.320431898322105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.291580595571024</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.362576574799967</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.263959640566561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.404930068375969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.390679780811866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.404663837646896</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3693423429805</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.358750471575706</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.360419406708937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.229115543786084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.205337944565472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.183741168258082</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.202137992338524</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.158128517214074</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.175783712052543</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0382066355298352</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0416319855020401</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0359672920493593</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0413963986497701</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0194960547580679</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0253703328979935</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_win_lose_self_FR_inc.xlsx
+++ b/xlsx/FR/policies_win_lose_self_FR_inc.xlsx
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0566846390547174</v>
+        <v>0.0430168731871829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0695121559353383</v>
+        <v>0.0681532575685024</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0551958037235578</v>
+        <v>0.0597381952587856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0955426704601823</v>
+        <v>0.0830332819472442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101048381652185</v>
+        <v>0.0946620641732693</v>
       </c>
       <c r="G2" t="n">
-        <v>0.174466907773966</v>
+        <v>0.16202853306004</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.271063113253394</v>
+        <v>0.276887026990056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292838133185283</v>
+        <v>0.291541621718771</v>
       </c>
       <c r="D3" t="n">
-        <v>0.320431898322105</v>
+        <v>0.294315992923591</v>
       </c>
       <c r="E3" t="n">
-        <v>0.291580595571024</v>
+        <v>0.304111116906549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.362576574799967</v>
+        <v>0.36765223175573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.263959640566561</v>
+        <v>0.277738002006796</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.404930068375969</v>
+        <v>0.413856195639839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.390679780811866</v>
+        <v>0.376899500872416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.404663837646896</v>
+        <v>0.405498796413725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3693423429805</v>
+        <v>0.353307077139519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.358750471575706</v>
+        <v>0.37511406988216</v>
       </c>
       <c r="G4" t="n">
-        <v>0.360419406708937</v>
+        <v>0.360956005982049</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.229115543786084</v>
+        <v>0.222037684932901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205337944565472</v>
+        <v>0.226652229945346</v>
       </c>
       <c r="D5" t="n">
-        <v>0.183741168258082</v>
+        <v>0.178491013543166</v>
       </c>
       <c r="E5" t="n">
-        <v>0.202137992338524</v>
+        <v>0.215226887995037</v>
       </c>
       <c r="F5" t="n">
-        <v>0.158128517214074</v>
+        <v>0.134259997529148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.175783712052543</v>
+        <v>0.166166656854004</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0382066355298352</v>
+        <v>0.0442022192500206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0416319855020401</v>
+        <v>0.0367533898949653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0359672920493593</v>
+        <v>0.0619560018607315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0413963986497701</v>
+        <v>0.0443216360116503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0194960547580679</v>
+        <v>0.0283116366596927</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0253703328979935</v>
+        <v>0.0331108020971119</v>
       </c>
     </row>
   </sheetData>
